--- a/data/trans_dic/P1801_2016_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1801_2016_2023-Provincia-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.4850942891051637</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6356927455429252</v>
+        <v>0.6356927455429253</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.534532543991062</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4231016364824216</v>
+        <v>0.4251648809898162</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.578051327832412</v>
+        <v>0.5812535252831479</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.471676329414365</v>
+        <v>0.4790262416744046</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6634304941546855</v>
+        <v>0.664386650811095</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4629303579805926</v>
+        <v>0.4654584044196277</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6332566847684133</v>
+        <v>0.6359666976195048</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5456445353134523</v>
+        <v>0.5441912301922269</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6868399753682455</v>
+        <v>0.6929836990224127</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5939480270306478</v>
+        <v>0.5951138421647629</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7543233041796216</v>
+        <v>0.750803850986721</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.550132122258935</v>
+        <v>0.5509288411690716</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7088975925765437</v>
+        <v>0.708329329928001</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4227491830429099</v>
+        <v>0.4228727336067896</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2060854916810394</v>
+        <v>0.2047264935140646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.528974825387445</v>
+        <v>0.534430933495211</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2599608514208007</v>
+        <v>0.2602061791293331</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4920535369362702</v>
+        <v>0.489863206197632</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2467541117054473</v>
+        <v>0.2462295438987795</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5140285776788374</v>
+        <v>0.5130138090802433</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2987058759520199</v>
+        <v>0.3012235009105466</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6242722999771818</v>
+        <v>0.6214729371439242</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3321353362331803</v>
+        <v>0.3327375457801037</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5550671176823345</v>
+        <v>0.5529820449168461</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3036596040041181</v>
+        <v>0.3027690588024328</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.4282178492337161</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6499380325549318</v>
+        <v>0.6499380325549319</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.5555649668211117</v>
@@ -788,7 +788,7 @@
         <v>0.4936166619047895</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.6674416960761899</v>
+        <v>0.6674416960761901</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3813605141321627</v>
+        <v>0.3761065696380743</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5930689255774726</v>
+        <v>0.5967920142708284</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5000162326486447</v>
+        <v>0.4991863131195073</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.641996384883524</v>
+        <v>0.6394059778080338</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4569855138944593</v>
+        <v>0.4520618349531886</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6326392825830768</v>
+        <v>0.630945829797777</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4851429115985451</v>
+        <v>0.4807907467641434</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6975357110445659</v>
+        <v>0.7051993865719837</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6051468767600259</v>
+        <v>0.6100541295034889</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7218256796128455</v>
+        <v>0.7237859413397428</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5350577854901054</v>
+        <v>0.5266619406414</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.701457552688676</v>
+        <v>0.698580951363467</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.5519967151562688</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4974017787938663</v>
+        <v>0.4974017787938662</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.6160188195357884</v>
@@ -870,7 +870,7 @@
         <v>0.5847398923976476</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.5178953603268789</v>
+        <v>0.5178953603268788</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5024653042084971</v>
+        <v>0.4985603756626689</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4265910077927998</v>
+        <v>0.420739765256484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5649984201715816</v>
+        <v>0.5651493822730114</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4868263951331959</v>
+        <v>0.4854118012478982</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5455845379222566</v>
+        <v>0.5477435851965756</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4782965490196878</v>
+        <v>0.4769885309148698</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6065431274268105</v>
+        <v>0.6061833432224589</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5578619560061681</v>
+        <v>0.5662016861922861</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6650559051027114</v>
+        <v>0.66616886274275</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.584354491499126</v>
+        <v>0.5812568686127175</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6201651747461298</v>
+        <v>0.6212837931258032</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5605629972582329</v>
+        <v>0.5577965424286766</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.5457078354742871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.666998764253761</v>
+        <v>0.6669987642537609</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5033172646762145</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3951925048251113</v>
+        <v>0.3946228260303509</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4963691540224517</v>
+        <v>0.5013184316993365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4836093732849621</v>
+        <v>0.4790427880596976</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6128782929697032</v>
+        <v>0.617188422285212</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4584722160396049</v>
+        <v>0.4542840077342032</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5731829130994217</v>
+        <v>0.5730937070581513</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5297705253500602</v>
+        <v>0.5234821195769124</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6226999856755568</v>
+        <v>0.6245019281148888</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.612496366179873</v>
+        <v>0.608455146139923</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7123713141208401</v>
+        <v>0.7122668060024394</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5557466359212859</v>
+        <v>0.55202354947399</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6556182175648083</v>
+        <v>0.651186203286953</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4642759883172818</v>
+        <v>0.4622200465246052</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5424682157369507</v>
+        <v>0.5393988641161035</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5404362752006154</v>
+        <v>0.5370964072655338</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6402980057712894</v>
+        <v>0.6382901119813914</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5213781449686861</v>
+        <v>0.5166950535238627</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6054915220623164</v>
+        <v>0.6048712766955805</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.588264790204781</v>
+        <v>0.5850987852097255</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6561654731386688</v>
+        <v>0.6535622308315238</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6588621365719416</v>
+        <v>0.6573190875232507</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7360404784632215</v>
+        <v>0.7336083647888727</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6052911363504265</v>
+        <v>0.6034731079552829</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6776334004422789</v>
+        <v>0.6812105996520397</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.3550933416412397</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5952944932560288</v>
+        <v>0.5952944932560287</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.4915122006685317</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3184087705506008</v>
+        <v>0.3181529798822237</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.550738094074524</v>
+        <v>0.552845175011314</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4519849861128668</v>
+        <v>0.4538561118259516</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6753766802749188</v>
+        <v>0.6756647200685585</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3930484670119678</v>
+        <v>0.395784777230092</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6284299780440966</v>
+        <v>0.6269101887294982</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3908685046217665</v>
+        <v>0.3980618372606576</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6424780066327298</v>
+        <v>0.6370777085706038</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5302692681687202</v>
+        <v>0.530059092548955</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7406867563305697</v>
+        <v>0.7382657367812264</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4495994924821419</v>
+        <v>0.4521299809670118</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6791064406841179</v>
+        <v>0.6817418012057798</v>
       </c>
     </row>
     <row r="25">
@@ -1198,7 +1198,7 @@
         <v>0.5688353182932624</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.3774422536504682</v>
+        <v>0.3774422536504681</v>
       </c>
     </row>
     <row r="26">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.466388262617913</v>
+        <v>0.467178932580914</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2953509997015158</v>
+        <v>0.2974216933914781</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5925043620323011</v>
+        <v>0.5951257602628486</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3973604702679598</v>
+        <v>0.3982025646993957</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5434614490458525</v>
+        <v>0.5440383965802943</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3565823360118147</v>
+        <v>0.3529084575483496</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5399088087030561</v>
+        <v>0.5394571668756287</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3585988451248557</v>
+        <v>0.3627941387032287</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6621228450398904</v>
+        <v>0.6622460547364037</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4565561104692146</v>
+        <v>0.4595483737056918</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5944571898882527</v>
+        <v>0.5926494781990226</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4012833572930475</v>
+        <v>0.3993135105154798</v>
       </c>
     </row>
     <row r="28">
@@ -1280,7 +1280,7 @@
         <v>0.5193213263810103</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.5203379198049807</v>
+        <v>0.5203379198049808</v>
       </c>
     </row>
     <row r="29">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4475595343901225</v>
+        <v>0.4480329564789878</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.461541466958131</v>
+        <v>0.4612968740448078</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5532577037495738</v>
+        <v>0.5546300577004409</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5444992205222429</v>
+        <v>0.5454772121436779</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5081409029750081</v>
+        <v>0.507074423162391</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.5080794586278856</v>
+        <v>0.5085860506135231</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4809109046290754</v>
+        <v>0.4839781006018267</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4978068023987729</v>
+        <v>0.4983244264451837</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5883057871641788</v>
+        <v>0.5876364796677144</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5731862402268891</v>
+        <v>0.5746539274091514</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5308913670540194</v>
+        <v>0.5307484382959128</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.5316435867351338</v>
+        <v>0.5318484129088118</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>124291</v>
+        <v>124897</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>183686</v>
+        <v>184703</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>136174</v>
+        <v>138296</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>209685</v>
+        <v>209987</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>269640</v>
+        <v>271113</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>401376</v>
+        <v>403094</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>160289</v>
+        <v>159862</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>218255</v>
+        <v>220207</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>171475</v>
+        <v>171811</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>238412</v>
+        <v>237300</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>320432</v>
+        <v>320896</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>449319</v>
+        <v>448959</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>212463</v>
+        <v>212525</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>109359</v>
+        <v>108637</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>276698</v>
+        <v>279552</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>141594</v>
+        <v>141728</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>504679</v>
+        <v>502433</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>265340</v>
+        <v>264776</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>258338</v>
+        <v>257828</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>158507</v>
+        <v>159843</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>326547</v>
+        <v>325083</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>180906</v>
+        <v>181234</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>569310</v>
+        <v>567171</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>326532</v>
+        <v>325574</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>121488</v>
+        <v>119814</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>187406</v>
+        <v>188582</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>168160</v>
+        <v>167881</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>228225</v>
+        <v>227304</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>299268</v>
+        <v>296044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>424808</v>
+        <v>423671</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>154550</v>
+        <v>153163</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>220416</v>
+        <v>222838</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>203516</v>
+        <v>205167</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>256604</v>
+        <v>257301</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>350395</v>
+        <v>344897</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>471019</v>
+        <v>469087</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>185894</v>
+        <v>184449</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>159180</v>
+        <v>156997</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>218814</v>
+        <v>218873</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>204904</v>
+        <v>204309</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>413142</v>
+        <v>414777</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>379788</v>
+        <v>378749</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>224399</v>
+        <v>224266</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>208163</v>
+        <v>211275</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>257565</v>
+        <v>257996</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>245954</v>
+        <v>244650</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>469618</v>
+        <v>470465</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>445111</v>
+        <v>442914</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>83473</v>
+        <v>83353</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>102086</v>
+        <v>103104</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>105711</v>
+        <v>104713</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>139255</v>
+        <v>140234</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>197055</v>
+        <v>195255</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>248119</v>
+        <v>248080</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>111899</v>
+        <v>110570</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>128068</v>
+        <v>128438</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>133884</v>
+        <v>133000</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>161861</v>
+        <v>161838</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>238864</v>
+        <v>237264</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>283803</v>
+        <v>281885</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>122162</v>
+        <v>121621</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>146850</v>
+        <v>146019</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>147601</v>
+        <v>146689</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>168455</v>
+        <v>167926</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>279583</v>
+        <v>277072</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>323208</v>
+        <v>322877</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>154786</v>
+        <v>153953</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>177629</v>
+        <v>176924</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>179945</v>
+        <v>179524</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>193643</v>
+        <v>193004</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>324580</v>
+        <v>323605</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>361717</v>
+        <v>363627</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>209054</v>
+        <v>208886</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>395149</v>
+        <v>396660</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>312455</v>
+        <v>313748</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>519370</v>
+        <v>519592</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>529771</v>
+        <v>533459</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>934159</v>
+        <v>931900</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>256628</v>
+        <v>261351</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>460971</v>
+        <v>457096</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>366572</v>
+        <v>366427</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>569594</v>
+        <v>567732</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>605994</v>
+        <v>609404</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1009490</v>
+        <v>1013407</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>363122</v>
+        <v>363738</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>235711</v>
+        <v>237364</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>489508</v>
+        <v>491673</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>330338</v>
+        <v>331038</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>872120</v>
+        <v>873046</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>581016</v>
+        <v>575030</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>420364</v>
+        <v>420012</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>286188</v>
+        <v>289536</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>547024</v>
+        <v>547126</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>379549</v>
+        <v>382037</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>953955</v>
+        <v>951054</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>653852</v>
+        <v>650643</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1519174</v>
+        <v>1520781</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1629004</v>
+        <v>1628141</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1961045</v>
+        <v>1965910</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2029767</v>
+        <v>2033412</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>3525935</v>
+        <v>3518535</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>3687262</v>
+        <v>3690938</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1632380</v>
+        <v>1642791</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1757002</v>
+        <v>1758829</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2085275</v>
+        <v>2082902</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2136705</v>
+        <v>2142177</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3683798</v>
+        <v>3682806</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3858273</v>
+        <v>3859759</v>
       </c>
     </row>
     <row r="40">
